--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,49 +22,73 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>519909</t>
+  </si>
+  <si>
+    <t>001581</t>
+  </si>
+  <si>
     <t>009789</t>
   </si>
   <si>
-    <t>519909</t>
-  </si>
-  <si>
-    <t>001581</t>
+    <t>华安安顺灵活配置混合</t>
+  </si>
+  <si>
+    <t>华安沪港深通精选灵活配置混合</t>
   </si>
   <si>
     <t>富安达科技创新混合</t>
   </si>
   <si>
-    <t>华安安顺灵活配置混合</t>
-  </si>
-  <si>
-    <t>华安沪港深通精选灵活配置混合</t>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>90.20</t>
+  </si>
+  <si>
+    <t>93.34</t>
   </si>
   <si>
     <t>90.48</t>
   </si>
   <si>
-    <t>90.20</t>
-  </si>
-  <si>
-    <t>93.34</t>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.80</t>
   </si>
   <si>
     <t>4.48</t>
   </si>
   <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>2.80</t>
+    <t>0.2780</t>
+  </si>
+  <si>
+    <t>0.2097</t>
+  </si>
+  <si>
+    <t>0.0542</t>
   </si>
 </sst>
 </file>
@@ -422,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,65 +468,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519909</t>
-  </si>
-  <si>
-    <t>001581</t>
-  </si>
-  <si>
-    <t>009789</t>
-  </si>
-  <si>
-    <t>华安安顺灵活配置混合</t>
-  </si>
-  <si>
-    <t>华安沪港深通精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>富安达科技创新混合</t>
-  </si>
-  <si>
-    <t>10.26</t>
-  </si>
-  <si>
-    <t>7.49</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>90.20</t>
-  </si>
-  <si>
-    <t>93.34</t>
-  </si>
-  <si>
-    <t>90.48</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>4.48</t>
-  </si>
-  <si>
-    <t>0.2780</t>
-  </si>
-  <si>
-    <t>0.2097</t>
-  </si>
-  <si>
-    <t>0.0542</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7974</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5885</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.66</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1148,651 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.34</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.66</v>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1786,13 +1851,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7607</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.3</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9167</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.34</v>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.66</v>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2402,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5291</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6408</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002558</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002559</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>14.49</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>18.3</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>11.34</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>9.66</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -566,6 +583,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1305,7 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1817,7 +2726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2481,7 +3390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2917,7 +3826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603063-禾望电气.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>10.3</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>14.49</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>18.3</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>11.34</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>9.66</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -583,6 +600,1540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5447</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015729</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀碳中和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>017485</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1474,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2214,7 +3765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2726,7 +4277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3390,7 +4941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3826,7 +5377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
